--- a/src/main/results.xlsx
+++ b/src/main/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>№</t>
   </si>
@@ -32,16 +32,19 @@
     <t>Екатерина</t>
   </si>
   <si>
-    <t>grttyui</t>
-  </si>
-  <si>
-    <t>hghg</t>
-  </si>
-  <si>
-    <t>jbbj</t>
-  </si>
-  <si>
-    <t>yhhkhkhkjh</t>
+    <t>я не могву боьше</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">ьб б </t>
+  </si>
+  <si>
+    <t>треш</t>
+  </si>
+  <si>
+    <t>ррррр</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -155,7 +158,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>84.0</v>
+        <v>398.0</v>
       </c>
     </row>
     <row r="7">
@@ -166,7 +169,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>65.0</v>
+        <v>383.0</v>
       </c>
     </row>
     <row r="8">
@@ -177,7 +180,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>0.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="9">
@@ -188,7 +191,29 @@
         <v>9</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>0.0</v>
+        <v>350.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>344.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>315.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/results.xlsx
+++ b/src/main/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">ьб б </t>
+  </si>
+  <si>
+    <t>ggg</t>
   </si>
   <si>
     <t>треш</t>
@@ -191,7 +194,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>350.0</v>
+        <v>369.0</v>
       </c>
     </row>
     <row r="10">
@@ -202,7 +205,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>344.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="11">
@@ -210,10 +213,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>315.0</v>
+        <v>344.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/results.xlsx
+++ b/src/main/results.xlsx
@@ -23,6 +23,9 @@
     <t>Количество баллов</t>
   </si>
   <si>
+    <t>yhj</t>
+  </si>
+  <si>
     <t>рпгп</t>
   </si>
   <si>
@@ -45,9 +48,6 @@
   </si>
   <si>
     <t>треш</t>
-  </si>
-  <si>
-    <t>ррррр</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>802.0</v>
+        <v>946.0</v>
       </c>
     </row>
     <row r="3">
@@ -128,7 +128,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>718.0</v>
+        <v>802.0</v>
       </c>
     </row>
     <row r="4">
@@ -139,7 +139,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>704.0</v>
+        <v>718.0</v>
       </c>
     </row>
     <row r="5">
@@ -147,10 +147,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>579.0</v>
+        <v>704.0</v>
       </c>
     </row>
     <row r="6">
@@ -161,7 +161,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>398.0</v>
+        <v>579.0</v>
       </c>
     </row>
     <row r="7">
@@ -172,7 +172,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>383.0</v>
+        <v>398.0</v>
       </c>
     </row>
     <row r="8">
@@ -183,7 +183,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>375.0</v>
+        <v>383.0</v>
       </c>
     </row>
     <row r="9">
@@ -194,7 +194,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>369.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="10">
@@ -205,7 +205,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>350.0</v>
+        <v>369.0</v>
       </c>
     </row>
     <row r="11">
@@ -216,7 +216,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>344.0</v>
+        <v>350.0</v>
       </c>
     </row>
   </sheetData>
